--- a/biology/Botanique/Desmodium_tortuosum/Desmodium_tortuosum.xlsx
+++ b/biology/Botanique/Desmodium_tortuosum/Desmodium_tortuosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmodium tortuosum, le sainfoin tortueux, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Amérique.
-C'est une plante herbacée ou un arbrisseau, annuelle ou vivace au port dressé, très ramifié pouvant atteindre 2 mètres de haut, aux feuilles trifoliées. L'espèce a été introduite dans toutes les régions tropicales du monde et est parfois considérée comme envahissante. Elle est parfois cultivée comme plante fourragère, engrais vert ou couvert végétal[2],[3].
+C'est une plante herbacée ou un arbrisseau, annuelle ou vivace au port dressé, très ramifié pouvant atteindre 2 mètres de haut, aux feuilles trifoliées. L'espèce a été introduite dans toutes les régions tropicales du monde et est parfois considérée comme envahissante. Elle est parfois cultivée comme plante fourragère, engrais vert ou couvert végétal,.
 </t>
         </is>
       </c>
@@ -514,18 +526,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (28 juillet 2019)[1] :
-Desmodium annuum Gray p.p.[4]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 juillet 2019) :
+Desmodium annuum Gray p.p.
 Desmodium purpureum (Mill.) Fawc. &amp; Rendle
 Desmodium stipulaceum DC.
 Desmodium tortuosum var. hirtellum DC.
 Hedysarum purpureum Mill.
 Hedysarum tortuosum Sw.
 Meibomia purpurea (Mill.) Small
-Meibomia tortuosa (Sw.) Kuntze
-Liste des variétés
-Selon Tropicos                                           (28 juillet 2019)[5] (Attention liste brute contenant possiblement des synonymes) :
+Meibomia tortuosa (Sw.) Kuntze</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Desmodium_tortuosum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Desmodium_tortuosum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (28 juillet 2019) (Attention liste brute contenant possiblement des synonymes) :
 Desmodium tortuosum var. hirtellum DC.
 Desmodium tortuosum var. ospriostreblum (Steud. ex A. Rich.) Sunding
 Desmodium tortuosum var. tortuosum
